--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/61_Nevşehir_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/61_Nevşehir_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9410CC20-FDE7-4E30-8FF6-2950D584E080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DB4DAB6-F299-42E2-99AE-30AF4FC41066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="660" xr2:uid="{6EB7048A-F044-43D9-9013-2A67FE4CE059}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{E785D6EC-6790-4272-BA0F-30DFDD2809F4}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -1013,14 +1013,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{46FB5AE4-6E29-4C5D-9920-BBB2161A55A7}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FBF4B252-D7F8-485B-A171-BBAA518E0783}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{E93B8A39-E0E1-4C18-9E83-538FEE7AC33B}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{4B3C0B2D-15EA-4389-BF0C-6B9CB2183297}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{B59079C6-78F2-41BE-9D7E-37FE66526BB2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{1341794C-02C9-4BFE-985A-B3BAC5156194}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{7117C86B-02A2-42F5-9CD5-0EDAA4B7A2AA}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D4F608DD-A9D5-426A-B11D-8035109E95B8}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{AD2FA5C8-693D-41E8-B52B-E449FED85683}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9AAD2DC3-42F8-42A2-A6FA-B19C3D15BEFF}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{24DAC544-6967-4597-BC38-5EA3EDB37B7F}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{5B510503-BD5F-4E2E-8D50-C15F44C1CA5E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{57BDFC5D-D26D-4C3C-AE38-4BFB802ABA65}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{126DCA50-0ABF-46EA-A4CA-6FF1701DD560}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{A9A28A19-FF6E-4779-9302-F611DE764D03}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D0B2E66F-8DE8-4CC7-AA5C-02929F897C71}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1390,7 +1390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FF179C-DAD1-4291-91DC-3BA1217736BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EBBD10-DE39-4C84-8301-CC877A8750FF}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2672,17 +2672,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0674A79A-5D3E-4055-98C6-282FF9E46334}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{305AB84E-0129-44F4-A138-BB8AA4146075}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{501FEFE2-4FC5-4DAC-AC82-D33F22F0CA98}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9BD501BD-3804-4D4B-A707-02EB7E8A817C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{252EC408-7F23-4B9F-B995-6003DC50E04B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{605F1BCF-E394-49E0-BB53-D0B12CA121D6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{317BBB99-8B44-4FD3-8DCB-34214CB6B580}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3EBD779-3FD9-48CA-81A2-375FBB1B44A7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BF8F021B-E4EF-443D-8942-E799E0E6CC53}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{25357074-C707-4517-AB40-8595495C625E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BE98869-8117-41A8-AAB7-C9B6059111DC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41AF79AF-ED0D-44FB-830F-2F5A138B1D80}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3033FE3D-BF44-407E-9BB1-988D50D4895E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB4CDFD0-1785-42FE-A4A6-BD5641CB6385}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0808DA6C-6107-4860-8C7D-77CF9643AC80}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A3C9DB1-46A3-41AA-A365-5404D3C94589}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D45783B6-9F8A-417B-AD23-D69E07D3802F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8740715A-4181-4661-9019-B64C06B9F364}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3341BBD7-C494-4B42-A5BC-988D38EDB523}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6C2F6530-4C58-4FA1-B9B8-FF0ABA0E82BE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AAECF529-74DD-4974-8A63-9300B1062DF9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE3E02DB-398C-46F3-85A9-7A858A5F1155}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2695,7 +2695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CEA7CA-3839-42D9-BE4A-314989307FFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662EFFCD-0C46-4F80-9D5D-DE46FE622A60}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3962,17 +3962,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8AD9EB1C-5A47-4578-BAE2-4ACE14BDD161}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BAB3EED6-7BE4-4F3E-B319-77FBE33EBD70}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{43EA26C0-05F0-4DC1-8DA1-BBB7C93E1BD4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4DBB07DE-1951-4EF8-9D58-35E5E68FE478}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16D21A83-F355-44D5-BB03-95DE127FDA0F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D60CB2C-94BD-4CB0-A295-14D23E7D7B8D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2DD4B594-AA87-4213-AC29-6077C4BAC6BF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{370B621C-071F-4632-9586-48C2BB3A2854}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{011D2D8B-1E6E-4EE1-A119-E99A417FE311}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FC95D5CE-88ED-4223-A643-8EB708BDFB15}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35F83727-2197-490B-A8ED-14F20107ED6F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B34D9D7-D367-4B65-8811-EF3AF0EF3549}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76F7993C-A1DC-4E88-B7DF-46089BFD1138}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D51A7DE9-4973-4081-B1BF-B9D84DC9EC62}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{859CB78C-AAB8-407F-B6A1-D00F664FC556}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{15B38857-C5A6-45DD-B8A6-9D37DD8ACD3A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD15E732-6847-40B4-8DBB-8E74C49F26E2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41B80238-69A1-458C-B97D-D4F4595C2090}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB383CAA-A71B-4569-8ACE-B8FE2AF981D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C1584815-8211-4433-B430-6B4561119B08}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C2414580-4D62-4338-BD5D-0CC46CEC3B70}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A4003A2-6887-42B2-8734-40116A3F7213}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3985,7 +3985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796B10F-A9D8-45E0-8866-35957C2C6E0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10D3749-DDE7-4D0E-AE19-B062B445A5A9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5236,17 +5236,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{365BE1E6-63AD-44BC-A0A8-11ADDA90DFB3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF167499-4B4F-448C-A558-5127070BF18B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CB27370B-1418-4E90-8460-51E69A34CCD5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0B954357-4DB9-463D-9941-EDA45B654EAA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B222C70-D5B8-495F-B23F-8C797EAA1B77}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B5F1163-916B-4B5A-9205-7E672A9C3EBA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B632C4C2-E800-4B00-B827-DD6F4630A3E7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B36C3ED6-ECFC-4F8F-BB0C-627BDFCAB307}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{09CBB5B6-DBEF-446C-9045-4ACAAD2C37A4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CE62104B-3A54-44FC-854E-3AEC3D9142CB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45698335-93C7-41A2-828D-134051E6797C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DEF6954B-8C48-4077-86A7-06DEE2219F8D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F6FE664-C262-4453-A5FB-FD15611BBEA1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7F585EEF-0AC9-47E8-ABD9-A771AB148820}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{072CF11C-1095-4407-BD06-94C517CC327B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A2DB4982-D46D-40BD-87FA-D635ACEDDC65}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ADFEB7A9-2778-448D-B5A4-83F9F1CCDFD3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BA6F91D-F930-4622-8835-536D22445340}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A644FB2-133C-4030-A3E1-5FF4983C318B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{165DA7E0-A86F-49EB-8BBC-5FB439364411}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F930760D-82D7-41DE-A750-A374935C9005}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E1F0428-CF75-49DF-A687-A32C10897041}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5259,7 +5259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE667F3-57D5-4F3F-BEFE-A731ED275B9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432F0E4F-9086-4B4A-9ACA-057490ABF45D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6510,17 +6510,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35F6A8F5-D881-4D97-B4AC-9BF3F1D74713}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCF60BAC-861F-4298-86D6-3E1D1526A1D9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{45D7E000-14F4-429B-A4EC-87688627D867}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2083CFE2-7A71-4515-BAD8-6428F9CED210}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{622C2C58-3545-4ED3-95E0-4CCCF2ADE73F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A58BA539-B2D8-42D4-8109-061CF8802DFC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7C13795-DB8F-4A0E-97D8-5A31CA0E8A1F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3ABF7DDB-36A4-4476-B52F-0340B59D244A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{13B0EF6A-19AB-480E-97A4-ED65FF2846BE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{55DD665D-E071-4B2E-B829-A8B10ED91CA0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A37341BC-2BDB-47F1-AF1C-F54B585966EB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9ACA839C-A93B-4DEA-BF62-33FB1DA1AF24}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5FAE2C62-B909-47F2-B99E-B1B8AEF4EE99}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D2BE166C-77E0-42CA-BBB6-EC3EFDE90ABB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D242B319-E1AD-4176-B564-C75D171E578A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{94AEF005-B13F-4D89-B0F6-01FA824960FB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85CD2C20-47C1-466D-90C9-6A26658F0CE6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C583C092-4159-4241-8580-11ACA5B855B6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{924F1FC3-9E61-4FAA-A666-C072C40F6087}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{325FD462-8D4B-44D8-B885-6D8F2287F67B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F1A2C693-C11E-4AD9-8C74-7E6081FD1E4E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA242C14-8893-4215-988E-085D204583F6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6533,7 +6533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FFBD0F-85D9-47DC-A457-3918C2DFBCEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3C3545-81AE-47C1-8A1C-FEBE666C98E7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7806,17 +7806,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BCB05253-9D7C-4A0B-BC17-F0193F3929EF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D24B2787-747A-43E7-A6FC-31C3D031F686}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{29302181-F9BC-4FE4-98BF-11A3915BF971}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B476E89E-4F75-43E9-958B-3B8937AA9B97}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4E1E437A-CFD6-4110-BB56-1B3F8F43B992}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4094B559-7BBE-4082-9166-9384D20444E3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A73592F-F6E4-42C8-87BB-1C5BCA803305}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4BA24385-A706-4B11-8187-B5E281EBBB93}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ED05B2B2-5488-47CA-84FF-E990043BF48A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{19D8FF59-7E52-4258-96B3-C6D91ED345C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E1B3553-45A0-4219-B327-A9463126E5CE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{600DD9B7-AAB5-4069-AEE4-1CC1472B7433}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16B96B8B-D84E-4F59-9C19-6B6156DC6705}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FF3ADCA8-31DF-45E3-A750-778F8E67D0D5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{622A132F-B3DF-4AB1-A0C7-92A0FEFC9021}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC937DBD-1028-45E3-8962-BCBF746AF570}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C734351-4E9F-4C02-9FEE-452120FF5A38}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D50116C-0FEF-40D5-82B4-CFE7967D0FB6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{656021DA-AC74-42A9-A550-BEBAA29541A1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D7B1CAE4-CB51-4CB5-8431-1D968DB5B09F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{47E42F5D-ADA4-4A0C-B79D-D65723B44D84}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36C35925-342F-4C7F-AEAC-ED5CB13D892C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7829,7 +7829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D01ABA-A54D-47B0-AE80-14C5FD5C6470}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880320B0-2CF5-48FD-BD6D-1AF89EE3C062}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9102,17 +9102,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{31D688A4-22B7-4343-B959-619208983A00}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2CA76B69-52E2-40E0-AF4E-5050CDC435F8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{941E12F6-E5F7-4D21-BE0F-B3D3A1D7FBD5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{635653EA-78B3-42C4-AADF-612320F81CAE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0896F03-28BE-4770-AE60-391650C2ABAA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{975F1618-3D9B-4903-9B9F-73542736F7F2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A542DAF2-304A-49E9-9F4E-30BC28C838B3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B302D788-9811-48A7-9887-F69674DAD7F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F841676A-F11C-432E-96D6-39EFF30EF079}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7DC9B5FD-E668-4EC2-BB32-CBFFAF719B8B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47C75A85-9621-4FC5-98C7-40F60B5A3937}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0ACC4C5D-E468-4FFE-A878-4CBF825BA6D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{726FFFD0-BCC4-4712-913F-B595386A6ED0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7C1346BD-18A0-4001-9D14-E632070BC0B9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{35E0ECA2-073E-4295-9463-CD594E16704E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F2E4A60B-6CB2-42C8-9183-1929DD345277}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD2A5418-ED82-4C2D-91C5-21D6B52D6CA5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E845EBD-4705-4E7C-B072-583E3B60C0AA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2B67725-1BEF-4F24-8C7D-889A79C488BC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8F330224-8A02-4456-A611-ED7BB9346ECC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{685026F5-D44B-41C4-82CF-A7AC62AC0723}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B198468-7F31-4FCC-86C5-33CE408550CA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9125,7 +9125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2F09B0-F2F6-4B26-B540-BEF21CEF7264}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F790F49-C0B7-436E-A206-85493F426FC1}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10398,17 +10398,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E4708B4-BAC7-4132-97D1-E532967ED77F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F091950-F44F-48B0-A463-559BBAB4C9AA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9F2B2414-D0AE-41F7-A747-DA1420F6ADB6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{53445153-2196-4D61-8881-0F4B17DDC768}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF8F6729-A129-460C-B850-0E01C56632F5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6754AE01-2EED-444A-93CC-3B8F0388EAF6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F144DCFE-1434-4D59-BF77-B34A531E6F95}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{411C32E3-7D3C-4FA4-96A1-FBD15B3B7D52}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F9A5BE92-CDE2-44BA-AEE1-4384A1A14442}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{01115372-77BA-46C5-91B0-A9E22073C640}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13A226B7-DD87-4600-AE9C-9CEDEF851C45}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D527A792-2F4B-43C5-BE34-4E96450287EB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F436502-6774-40E4-967D-EA0F4247D6B9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DBDC2CA1-14B5-4F9B-A2CE-7419CDDB6C05}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8B3ECE33-1997-494C-98D9-8AFE681DE370}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7FCC7C9C-67F3-4080-B290-56545837A53A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39BCB63B-7BCF-46B7-8860-41B9D998D72C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F7B6146-9AF7-4173-8C41-97E80C9452E3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E595C7D-7920-438E-BFA4-58FD37DEF30E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{06CF0FCC-ECBA-47CB-B68C-38EEE120C06B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1EF63C3A-6980-45D2-8A9C-76BC3C575D07}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2729288A-A504-4582-8A24-9ADD59DC87CE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10421,7 +10421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0404A1B9-FA01-4BA9-8C65-B9F9311B6983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1D6360-7138-4C53-9B08-51123EDAF285}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11694,17 +11694,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B06E5794-CB80-48B1-A5CD-C63787204A70}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C533DED-5A8C-4793-AB0F-9339D81D8982}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6B0821B9-CB19-48D3-96C8-90F7ED7C2515}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73F75C7E-794C-4049-A05F-F06C650BCA77}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01FCC1B8-297D-4779-A291-883E0EAE35AC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C9047A34-4240-4209-AA3D-5B111167586B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15B2EC3B-7BCA-4235-A5B6-B7A8E20B7856}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6931811-D655-404C-9A9C-55F76782F7E2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{52CEA5AC-1655-467D-BF5F-045E8BEDACEE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3931AEA4-77CE-452C-86A8-B363B3317074}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{879B28CE-249D-4956-9C41-255D35E11B1E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18821058-BD71-4A97-969A-053A6016F6A0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{435514A7-F365-454F-9FAB-2B5CB43B990C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C03373CE-717D-42E0-A559-84C28A9031A2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9AF9F7D9-C65B-4130-83F8-9EE2F6D57DE3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{21BFAB16-14F6-4F3E-9B9B-3795649BC33D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{47A21063-CC53-45D9-8BD5-269401DAB8E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6DA9017C-9A3B-417B-81A5-AB192027B7AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9778F27-0A26-4F90-AE1C-2478940D64B0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4EC7A0F5-C371-4108-9B4C-B53280401661}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5365DDBF-1B02-4E89-A1ED-1DA07AB1A413}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D5D67C8-1525-4AEF-A39E-FAB2B31CBA3E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11717,7 +11717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0563D48-90AF-4622-8FF1-347464DE8B92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBA6689-2B3B-4709-B921-8564A9A3F15F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12986,17 +12986,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA874FFD-B493-4981-A050-36C3124BAE18}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C9C6678-BA61-40CB-BD69-A835C1E5FC86}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0AD2A0F-0260-41F0-A339-DD76F16A80C9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B793B6BD-4071-4E61-973C-AC4CF2B1D865}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F85BC502-7CB1-4B23-88D8-E1C39AC7B2DD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D7CF25C-429C-4C1B-B1D3-E5339E4E28C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D0F31B6A-14A5-49BD-9C25-C6BF79AC9FB1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71BF3A26-1E15-4706-AA83-FE204921E4E2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{99FAD846-D830-4166-8206-4FF90E5A6794}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B0D3774C-BA4A-414C-8FC8-F3BB31397A61}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{857744E9-587C-482A-BB43-DCDEB109331F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ABF991B3-68C3-4F1A-9228-C50C48A2F6E1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3EE40038-50F5-4C50-A0CA-97D0059EDA28}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C458FFE2-94F7-4B2E-844A-3494AC5D338B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B062E6CB-41C2-4A1D-8447-CC6AB3F5D1E0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A8F7720-36A2-4AE6-BA23-C4E951E68E85}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{44C1266F-48F6-4076-A7C6-B21D5EE10BD4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B8AF9AC-7A63-44D4-841A-3A66240F743D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C1A03CD-A874-4103-B93E-63605CD36EA5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CB8910D5-F374-4967-A57B-2959BBC02E0A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2E452C71-75CC-48EA-A866-E42996D7FB20}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70BA0346-AF11-4AB5-9267-F930A1B1D5FC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13009,7 +13009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1D13F1-C828-4904-BC7B-DD1DC85FF25E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F1BA94-D20F-4BF5-8425-2EE0F2F09532}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14278,17 +14278,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{43059C7E-43AB-4DAE-993C-6F40F6F882CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F557FE56-5713-40AE-A647-03A135C8BE44}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5DCF597D-83A7-40AA-9898-C7DACFB3318D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{149D6CF1-7AD2-438B-8797-0DAA59158F2E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7D921591-F179-4E18-A2BC-2C0729F1FFD9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6C4D048C-DE98-430D-BFDD-D66947DF3EDE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F1D57DF-9C92-49D3-B6B7-B4FC0420E4DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1091E662-8D61-41C7-97CD-E810C1C585D9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0435AD28-0A30-4801-AA75-211C9EA6244A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F851EB19-12FF-44E9-98EE-42CD0E7BAF05}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D7AE6C6-D2E6-4777-AE57-D1763D309FC7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{08943347-C33A-495C-B338-CDE33AE8A4FC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7140E651-D74B-4020-AA82-39780D8BAF56}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AA5885D4-3772-44A7-8E5A-3C20CB16DF55}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CDD6EB21-4CE4-425A-9ABE-608525DB71DD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36F3BCB6-FC98-4F6E-BDA2-303A1B57B7F2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E16C8636-091A-44D0-B7B4-68935DD35CE4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59DF65AF-88C3-4013-819D-CF70626E6AF4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DFE52B90-2391-4FB1-B2DA-D4BFDB1BBD5F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DE09DA22-37F1-49B5-91B4-2EB2ABC86F65}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{21F56615-158B-4783-B8C1-DDF54F41CBD3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85C69114-823E-4304-B26A-C871470CB199}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14301,7 +14301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D453A7D-320D-41A6-8164-9C6037495D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250D9F14-E5EB-47F6-B3D5-FE4FEDE17C8B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15570,17 +15570,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E989834-F9E3-46B6-BFD0-D0C5EF3F91F4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63D10288-54E6-4240-827F-F3BF474C2009}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FE0CFEA-B2F2-46DB-B03B-640B5C1D15A4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ECE48659-9033-4170-BE13-00536AFCF539}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D1E84CCD-25EA-4D36-92F2-A5237F4F3689}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{45D9F6D6-D70D-4AA3-B37C-207ECCE785C0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{971DAC56-1FDE-4D1D-B5C3-884A041E5433}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{56597FE3-F2DF-468D-9DED-FF0BB43111AB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FD8EC666-270C-4226-9AF1-5CBBB7E7A9A5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6F0C7F47-F9AD-4E46-8205-0258C76FAAD4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DEDDFA61-3D86-4C14-B6C9-849A5196BCB9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC862710-84DB-47A9-8459-A49E5BB46845}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{235D76C7-6CE4-4D12-8565-62B94ED72D70}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4EB500B0-7E66-401A-B06D-04D863FA4736}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BCE11AF0-B8D2-4A3D-8B73-F3F0A515C671}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{387B13E1-07A7-4826-875B-24F246D00E01}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B46F8BB-7875-4F8C-B20F-27C03DDA9180}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4AA67190-1E81-4F0A-90E4-188361D9751C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AEF6B038-432C-48F0-B511-47816DB6AAC7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A7E6693D-75E6-45E0-86A5-37609D81DCDE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7292C763-E50E-4E8B-9299-4C8DD763CF9E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D80CEA0D-5F64-4B0C-B6CA-01DB5C21CE0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15593,7 +15593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3BC1A5-FECC-491A-915C-BF3962C87B29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2460123C-B849-4C7A-B1CC-576F35986C1C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16864,17 +16864,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E84F58CA-6FD7-41BC-817F-85ACD4E068A4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C57BD786-5104-4260-A46F-974A9118CBEE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{59F635C1-DE82-475A-9662-E930CC28B000}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5EEE36D3-0EBB-49CE-944D-C7C9359F5A33}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C918B4E-17D3-4862-8947-2EF395DDBF03}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D18D8293-A9B6-4D2D-B6A3-6A7B52A84975}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A517E0A-CF81-4215-A0D9-A491E94A3CFA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3CC015EC-6358-491C-94AE-D8367D4080F2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1DD1CFC4-F14E-4402-A17F-50D70CD88181}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5B1D2B41-F23B-4FE7-98F8-CB53DE0C2A3A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D18F7A5B-BC0D-4117-BFAC-CBC33C81A385}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6815387C-9178-46FB-B62C-CE24211F71DB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1BEBDDF-78D9-4354-A602-B5629122BEF8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{256DC1F5-D4A2-46C2-938F-9E42B134BF06}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{08C69636-0F0C-4344-9DD7-2BA3D176B244}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8E4A87F-0CD5-4668-9119-F802C774AFE6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E858C10-4D3B-4D86-A034-EAD5BE93F48A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A1E8AA33-5EE3-43F8-A9FA-11FA7CC90DF7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E46BA698-9636-4E77-9379-CBB5680C5C51}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F31B6A5D-7C12-441B-94CF-C9AF0BC28929}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9740FE7B-094A-41F0-9D05-14A0C779B0D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95970176-EAAA-45EB-9BAA-C33F4E31743F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
